--- a/Data/TsiConfig.xlsx
+++ b/Data/TsiConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603213\Documents\UiPath\TsiPortal\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FE6267-7313-4E01-A14F-2616D8B2EA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB6AB0B-0009-42A2-94D0-73E6B66B9235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="129">
   <si>
     <t>Name</t>
   </si>
@@ -159,18 +159,6 @@
     <t>ProcessABCQueue</t>
   </si>
   <si>
-    <t>StatusReportEmailSubject</t>
-  </si>
-  <si>
-    <t>StatusReportEmailBody</t>
-  </si>
-  <si>
-    <t>Vangaurd : Process execution ended</t>
-  </si>
-  <si>
-    <t>Vanguard : Process execution ended. Please find attached status report.</t>
-  </si>
-  <si>
     <t>SharedFolderCreationFlag</t>
   </si>
   <si>
@@ -225,24 +213,6 @@
     <t>TSISignInPageException</t>
   </si>
   <si>
-    <t>File is not downloaded from portal</t>
-  </si>
-  <si>
-    <t>FileNotDownloadedSubject</t>
-  </si>
-  <si>
-    <t>FileNotDownloadedBody</t>
-  </si>
-  <si>
-    <t>FileNotDownloadedException</t>
-  </si>
-  <si>
-    <t>Vanguard: TSI : File is not downloaded from TSI portal</t>
-  </si>
-  <si>
-    <t>Vanguard: TSI : File is not downloaded</t>
-  </si>
-  <si>
     <t>NumberOfRetries</t>
   </si>
   <si>
@@ -261,9 +231,6 @@
     <t>SharedFolderNotAvailableException</t>
   </si>
   <si>
-    <t>Vangaurd : Shared Drive : Shared folder is not available</t>
-  </si>
-  <si>
     <t>Shared folder is not available</t>
   </si>
   <si>
@@ -379,6 +346,81 @@
   </si>
   <si>
     <t>PO Number,Invoice Category,Tax Code,Customer Name,Invoice Num,Order Category,Invoice Date (MM/dd/yyyy),Currency,Invoice Exchange Rate (To VIS Functional Currency),Total Amount (No Tax) (Invoice Currency),Tax Amount (Invoice Currency),Invoice Amount (Including Tax) (Invoice Currency),Total Amount (No Tax) (VIS Functional Currency),Tax Amount (VIS Functional Currency),Invoice Amount (Including Tax) (VIS Functional Currency),</t>
+  </si>
+  <si>
+    <t>Vangaurd: TSI: Shared Drive : Shared folder is not available</t>
+  </si>
+  <si>
+    <t>TSIColumnNameIsMissingSubject</t>
+  </si>
+  <si>
+    <t>TSIColumnNameIsMissingBody</t>
+  </si>
+  <si>
+    <t>TSIColumnNameIsMissingException</t>
+  </si>
+  <si>
+    <t>Vanguard: TSI : Column name is missing of flat file</t>
+  </si>
+  <si>
+    <t>Hi,
+Column Name is missing of the flat file. Please check.
+Regards,
+Bot</t>
+  </si>
+  <si>
+    <t>Vanguard: TSIBot</t>
+  </si>
+  <si>
+    <t>ProcessStartSubject</t>
+  </si>
+  <si>
+    <t>ProcessStartBody</t>
+  </si>
+  <si>
+    <t>Vanguard: TSI Bot : Process execution started</t>
+  </si>
+  <si>
+    <t>Hi,
+Process execution started of Vanguard TSI bot.
+Regards,
+Bot</t>
+  </si>
+  <si>
+    <t>criszean.tan@tel.com</t>
+  </si>
+  <si>
+    <t>Vangaurd: TSIBot Process execution ended</t>
+  </si>
+  <si>
+    <t>ProcessEndEmailSubject</t>
+  </si>
+  <si>
+    <t>ProcessEndEmailBody</t>
+  </si>
+  <si>
+    <t>NoRecordsFoundInFlatFileSubject</t>
+  </si>
+  <si>
+    <t>NoRecordsFoundInFlatFileBody</t>
+  </si>
+  <si>
+    <t>NoRecordsFoundInFlatFileException</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanguard: TSI: No record found in the flat file </t>
+  </si>
+  <si>
+    <t>No records found in the fat file</t>
+  </si>
+  <si>
+    <t>This will not be used,  will be on orchestrator asset</t>
+  </si>
+  <si>
+    <t>Hi, 
+TSI File for Vanguard process has been successfully downloaded. 
+Thanks, 
+Bot</t>
   </si>
 </sst>
 </file>
@@ -758,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z975"/>
+  <dimension ref="A1:Z980"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -832,7 +874,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
@@ -841,310 +883,360 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
+        <v>121</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.5" customHeight="1">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.5" customHeight="1">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.5" customHeight="1">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.5" customHeight="1">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>103</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.5" customHeight="1">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.5" customHeight="1">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.5" customHeight="1">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.5" customHeight="1">
       <c r="A17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1">
+        <v>115</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.5" customHeight="1">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>51</v>
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>97</v>
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>53</v>
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>52</v>
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B25" t="s">
-        <v>59</v>
+      <c r="B25" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A27" t="s">
-        <v>62</v>
+      <c r="A27" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="14.25" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A40" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A42" t="s">
         <v>69</v>
       </c>
-      <c r="B33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A35" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A36" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37">
+      <c r="B42">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38">
+    <row r="43" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A39" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A40" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A41" t="s">
+    <row r="44" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A49" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A42" t="s">
+      <c r="B49" t="s">
         <v>106</v>
       </c>
-      <c r="B42" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A43" t="s">
-        <v>107</v>
-      </c>
-      <c r="B43" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A44" t="s">
-        <v>116</v>
-      </c>
-      <c r="B44" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
+    </row>
+    <row r="50" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="51" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="52" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="53" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="54" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="55" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="56" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="57" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="58" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="59" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="60" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="61" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="62" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="63" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="64" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="65" ht="14.25" customHeight="1"/>
     <row r="66" ht="14.25" customHeight="1"/>
     <row r="67" ht="14.25" customHeight="1"/>
@@ -2056,6 +2148,11 @@
     <row r="973" ht="14.25" customHeight="1"/>
     <row r="974" ht="14.25" customHeight="1"/>
     <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2251,18 +2348,18 @@
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B19">
         <v>1000</v>
@@ -2270,7 +2367,7 @@
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B20">
         <v>1000</v>
@@ -2278,7 +2375,7 @@
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B21">
         <v>15000</v>
@@ -2286,7 +2383,7 @@
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>5000</v>
@@ -2294,7 +2391,7 @@
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -2302,10 +2399,10 @@
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>

--- a/Data/TsiConfig.xlsx
+++ b/Data/TsiConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603213\Documents\UiPath\TsiPortal\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB6AB0B-0009-42A2-94D0-73E6B66B9235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A66B89-8712-4A21-8D5F-A75DE72CBE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -282,9 +282,6 @@
     <t>Vanguard</t>
   </si>
   <si>
-    <t xml:space="preserve">Vangaurd : Shared Drive : Shared folder is not available - </t>
-  </si>
-  <si>
     <t>http://tsiiserp8909.asia.tel.com/apps_live/trp/vis_invoice/vis_invoice.php</t>
   </si>
   <si>
@@ -346,9 +343,6 @@
   </si>
   <si>
     <t>PO Number,Invoice Category,Tax Code,Customer Name,Invoice Num,Order Category,Invoice Date (MM/dd/yyyy),Currency,Invoice Exchange Rate (To VIS Functional Currency),Total Amount (No Tax) (Invoice Currency),Tax Amount (Invoice Currency),Invoice Amount (Including Tax) (Invoice Currency),Total Amount (No Tax) (VIS Functional Currency),Tax Amount (VIS Functional Currency),Invoice Amount (Including Tax) (VIS Functional Currency),</t>
-  </si>
-  <si>
-    <t>Vangaurd: TSI: Shared Drive : Shared folder is not available</t>
   </si>
   <si>
     <t>TSIColumnNameIsMissingSubject</t>
@@ -390,9 +384,6 @@
     <t>criszean.tan@tel.com</t>
   </si>
   <si>
-    <t>Vangaurd: TSIBot Process execution ended</t>
-  </si>
-  <si>
     <t>ProcessEndEmailSubject</t>
   </si>
   <si>
@@ -421,6 +412,15 @@
 TSI File for Vanguard process has been successfully downloaded. 
 Thanks, 
 Bot</t>
+  </si>
+  <si>
+    <t>Vanguard: TSIBot Process execution ended</t>
+  </si>
+  <si>
+    <t>Vanguard: TSI: Shared Drive : Shared folder is not available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanguard : Shared Drive : Shared folder is not available - </t>
   </si>
 </sst>
 </file>
@@ -802,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z980"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -883,18 +883,18 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -915,55 +915,55 @@
     </row>
     <row r="11" spans="1:26" ht="14.5" customHeight="1">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.5" customHeight="1">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.5" customHeight="1">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.5" customHeight="1">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.5" customHeight="1">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.5" customHeight="1">
       <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
         <v>114</v>
-      </c>
-      <c r="B16" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.5" customHeight="1">
       <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.5" customHeight="1">
@@ -979,7 +979,7 @@
         <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
@@ -995,7 +995,7 @@
         <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1">
@@ -1008,10 +1008,10 @@
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1">
@@ -1064,26 +1064,26 @@
     </row>
     <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
         <v>88</v>
-      </c>
-      <c r="B30" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1">
       <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s">
         <v>90</v>
-      </c>
-      <c r="B31" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
@@ -1112,50 +1112,50 @@
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" t="s">
         <v>122</v>
-      </c>
-      <c r="B39" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" t="s">
         <v>123</v>
-      </c>
-      <c r="B40" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
@@ -1184,42 +1184,42 @@
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25" customHeight="1">
       <c r="A49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" t="s">
         <v>105</v>
-      </c>
-      <c r="B49" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.25" customHeight="1"/>

--- a/Data/TsiConfig.xlsx
+++ b/Data/TsiConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603213\Documents\UiPath\TsiPortal\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A66B89-8712-4A21-8D5F-A75DE72CBE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21814740-5C22-4466-84BA-1792B53E1DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="137">
   <si>
     <t>Name</t>
   </si>
@@ -421,13 +421,37 @@
   </si>
   <si>
     <t xml:space="preserve">Vanguard : Shared Drive : Shared folder is not available - </t>
+  </si>
+  <si>
+    <t>TSI_PortalUrl</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>TSI_InvoiceReportPageUrl</t>
+  </si>
+  <si>
+    <t>TSI_GlFromDateValue</t>
+  </si>
+  <si>
+    <t>TSI_GlToDateValue</t>
+  </si>
+  <si>
+    <t>Timeout</t>
+  </si>
+  <si>
+    <t>TSI_Timeout</t>
+  </si>
+  <si>
+    <t>TSI_ProcessFolderPath</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -451,6 +475,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -469,10 +499,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -486,8 +517,10 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -802,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z980"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -958,7 +991,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.5" customHeight="1">
+    <row r="17" spans="1:3" ht="14.5" customHeight="1">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -966,7 +999,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.5" customHeight="1">
+    <row r="18" spans="1:3" ht="14.5" customHeight="1">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -974,7 +1007,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -982,7 +1015,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1">
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -990,7 +1023,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1">
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -998,23 +1031,29 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1">
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>59</v>
       </c>
@@ -1022,7 +1061,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>60</v>
       </c>
@@ -1030,7 +1069,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.25" customHeight="1">
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>61</v>
       </c>
@@ -1038,7 +1077,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1">
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -1046,7 +1085,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -1054,7 +1093,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.25" customHeight="1">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1062,7 +1101,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -1070,7 +1109,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.25" customHeight="1">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -1078,7 +1117,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -1159,19 +1198,25 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A42" t="s">
+      <c r="A42" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
+      <c r="C42" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B43">
         <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
@@ -2155,8 +2200,12 @@
     <row r="980" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B22" r:id="rId1" xr:uid="{57FEDF6C-3E75-43B0-985B-5C0A40FC3383}"/>
+    <hyperlink ref="B23" r:id="rId2" xr:uid="{1B303B74-A3E9-49DA-AB16-8F24DF6C605B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3378,8 +3427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3426,12 +3475,51 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B7" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -4428,5 +4516,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/TsiConfig.xlsx
+++ b/Data/TsiConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603213\Documents\UiPath\TsiPortal\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21814740-5C22-4466-84BA-1792B53E1DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758D553A-1455-44B6-B519-94DAB276017A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="158">
   <si>
     <t>Name</t>
   </si>
@@ -445,6 +445,69 @@
   </si>
   <si>
     <t>TSI_ProcessFolderPath</t>
+  </si>
+  <si>
+    <t>ProcessFolderPath</t>
+  </si>
+  <si>
+    <t>ProcessRecipientsList</t>
+  </si>
+  <si>
+    <t>TSI_ProcessRecipientsList</t>
+  </si>
+  <si>
+    <t>ProcessCCList</t>
+  </si>
+  <si>
+    <t>TSI_ProcessCCList</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>TSICredentials</t>
+  </si>
+  <si>
+    <t>TSI_Credentials</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>TSI_DelayBefore</t>
+  </si>
+  <si>
+    <t>TSI_DelayAfter</t>
+  </si>
+  <si>
+    <t>TSI_WithoutItemDetailsPath</t>
+  </si>
+  <si>
+    <t>WithoutItemDetailsPath</t>
+  </si>
+  <si>
+    <t>WithItemDetailsPath</t>
+  </si>
+  <si>
+    <t>TSI_WithItemDetailsPath</t>
+  </si>
+  <si>
+    <t>TSI_NumberOfRetries</t>
+  </si>
+  <si>
+    <t>TSI_RetryInterval</t>
+  </si>
+  <si>
+    <t>ExceptionCCList</t>
+  </si>
+  <si>
+    <t>TSI_ExceptionCCList</t>
+  </si>
+  <si>
+    <t>ExceptionToList</t>
+  </si>
+  <si>
+    <t>TSI_ExceptionToList</t>
   </si>
 </sst>
 </file>
@@ -503,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -513,7 +576,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -833,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z980"/>
+  <dimension ref="A1:Z981"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -916,301 +978,304 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>144</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
+      </c>
+      <c r="B8" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
         <v>79</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="14.5" customHeight="1">
-      <c r="A10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.5" customHeight="1">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.5" customHeight="1">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.5" customHeight="1">
       <c r="A13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.5" customHeight="1">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.5" customHeight="1">
       <c r="A15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" t="s">
-        <v>111</v>
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.5" customHeight="1">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.5" customHeight="1">
       <c r="A17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="B17" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.5" customHeight="1">
       <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A19" t="s">
         <v>83</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
-        <v>130</v>
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>85</v>
+        <v>46</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="C23" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>49</v>
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
+        <v>60</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A42" t="s">
         <v>121</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A42" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1220,24 +1285,27 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A44" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" t="s">
-        <v>76</v>
+      <c r="A44" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="A45" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" t="s">
-        <v>124</v>
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
         <v>124</v>
@@ -1245,29 +1313,36 @@
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25" customHeight="1">
       <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A50" t="s">
         <v>104</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="51" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="52" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="53" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2198,14 +2273,16 @@
     <row r="978" ht="14.25" customHeight="1"/>
     <row r="979" ht="14.25" customHeight="1"/>
     <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1" xr:uid="{57FEDF6C-3E75-43B0-985B-5C0A40FC3383}"/>
-    <hyperlink ref="B23" r:id="rId2" xr:uid="{1B303B74-A3E9-49DA-AB16-8F24DF6C605B}"/>
+    <hyperlink ref="B23" r:id="rId1" xr:uid="{57FEDF6C-3E75-43B0-985B-5C0A40FC3383}"/>
+    <hyperlink ref="B24" r:id="rId2" xr:uid="{1B303B74-A3E9-49DA-AB16-8F24DF6C605B}"/>
+    <hyperlink ref="B14" r:id="rId3" xr:uid="{B5122D00-6737-4E75-ABEC-B0048DA0D91B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2450,7 +2527,7 @@
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3425,10 +3502,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3516,35 +3593,108 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="B7" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -4513,6 +4663,10 @@
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="1001" ht="14.25" customHeight="1"/>
+    <row r="1002" ht="14.25" customHeight="1"/>
+    <row r="1003" ht="14.25" customHeight="1"/>
+    <row r="1004" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/TsiConfig.xlsx
+++ b/Data/TsiConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603213\Documents\UiPath\TsiPortal\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758D553A-1455-44B6-B519-94DAB276017A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A751CCB-1116-4E94-AB5C-4675FD1F0A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="154">
   <si>
     <t>Name</t>
   </si>
@@ -183,12 +183,6 @@
     <t>DelayAfter</t>
   </si>
   <si>
-    <t>TimeoutMedium</t>
-  </si>
-  <si>
-    <t>TimeoutShort</t>
-  </si>
-  <si>
     <t>TSI portal is not available</t>
   </si>
   <si>
@@ -255,12 +249,6 @@
     <t>Vanguard: TSI : File is not available</t>
   </si>
   <si>
-    <t>Vendor Editing</t>
-  </si>
-  <si>
-    <t>SelectStatusOptionOnVis</t>
-  </si>
-  <si>
     <t>TSI_DownloadFiles</t>
   </si>
   <si>
@@ -303,24 +291,6 @@
     <t>TSIInvoiceDetailsPageNotAvailableException</t>
   </si>
   <si>
-    <t>TsiUsername</t>
-  </si>
-  <si>
-    <t>TsiPassword</t>
-  </si>
-  <si>
-    <t>FlatFileNameWithItemDetails</t>
-  </si>
-  <si>
-    <t>FlatFileNameWithoutItemDetails</t>
-  </si>
-  <si>
-    <t>FlatFileWithItemDetails</t>
-  </si>
-  <si>
-    <t>FlatFileWithoutItemDetails</t>
-  </si>
-  <si>
     <t>\Downloads\</t>
   </si>
   <si>
@@ -337,12 +307,6 @@
   </si>
   <si>
     <t>SentOnBehalfName</t>
-  </si>
-  <si>
-    <t>ColumnNames</t>
-  </si>
-  <si>
-    <t>PO Number,Invoice Category,Tax Code,Customer Name,Invoice Num,Order Category,Invoice Date (MM/dd/yyyy),Currency,Invoice Exchange Rate (To VIS Functional Currency),Total Amount (No Tax) (Invoice Currency),Tax Amount (Invoice Currency),Invoice Amount (Including Tax) (Invoice Currency),Total Amount (No Tax) (VIS Functional Currency),Tax Amount (VIS Functional Currency),Invoice Amount (Including Tax) (VIS Functional Currency),</t>
   </si>
   <si>
     <t>TSIColumnNameIsMissingSubject</t>
@@ -399,15 +363,6 @@
     <t>NoRecordsFoundInFlatFileException</t>
   </si>
   <si>
-    <t xml:space="preserve">Vanguard: TSI: No record found in the flat file </t>
-  </si>
-  <si>
-    <t>No records found in the fat file</t>
-  </si>
-  <si>
-    <t>This will not be used,  will be on orchestrator asset</t>
-  </si>
-  <si>
     <t>Hi, 
 TSI File for Vanguard process has been successfully downloaded. 
 Thanks, 
@@ -508,6 +463,39 @@
   </si>
   <si>
     <t>TSI_ExceptionToList</t>
+  </si>
+  <si>
+    <t>WithoutItemDetailsColumn</t>
+  </si>
+  <si>
+    <t>PO Number,Invoice Category,Tax Code,Customer Name,Invoice Num,Order Category,Invoice Date (MM/dd/yyyy),Currency,Invoice Exchange Rate (To VIS Functional Currency),Total Amount (No Tax) (Invoice Currency),Tax Amount (Invoice Currency),Invoice Amount (Including Tax) (Invoice Currency),Total Amount (No Tax) (VIS Functional Currency),Tax Amount (VIS Functional Currency),Invoice Amount (Including Tax) (VIS Functional Currency)</t>
+  </si>
+  <si>
+    <t>WithItemDetailsColumn</t>
+  </si>
+  <si>
+    <t>PO Number,Invoice Category,Tax Code,Customer Name,Invoice Num,Order Category,Invoice Date (MM/dd/yyyy),Currency,Invoice Exchange Rate (To VIS Functional Currency),Total Amount (No Tax) (Invoice Currency),Tax Amount (Invoice Currency),Invoice Amount (Including Tax) (Invoice Currency),Total Amount (No Tax) (VIS Functional Currency),Tax Amount (VIS Functional Currency),Invoice Amount (Including Tax) (VIS Functional Currency),Item No.,Item Description,Qty,Unit Price,Total Amount,Customer Item</t>
+  </si>
+  <si>
+    <t>NoRecordInItemFileSubject</t>
+  </si>
+  <si>
+    <t>NoRecordInItemFileBody</t>
+  </si>
+  <si>
+    <t>NoRecordInItemFileException</t>
+  </si>
+  <si>
+    <t>No records found in the without item details flat file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanguard: TSI: No record found in without item details flat file </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanguard: TSI: No record found in the with item details flat file </t>
+  </si>
+  <si>
+    <t>No records found in the with item details flat file</t>
   </si>
 </sst>
 </file>
@@ -895,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z981"/>
+  <dimension ref="A1:Z977"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -969,7 +957,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
@@ -978,133 +966,133 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.5" customHeight="1">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.5" customHeight="1">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.5" customHeight="1">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.5" customHeight="1">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.5" customHeight="1">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.5" customHeight="1">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.5" customHeight="1">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.5" customHeight="1">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.5" customHeight="1">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
         <v>66</v>
-      </c>
-      <c r="B21" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
@@ -1115,23 +1103,23 @@
         <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>49</v>
@@ -1139,7 +1127,7 @@
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>48</v>
@@ -1147,7 +1135,7 @@
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
         <v>49</v>
@@ -1155,208 +1143,181 @@
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A36" t="s">
         <v>71</v>
       </c>
-      <c r="B34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
         <v>73</v>
       </c>
-      <c r="B36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1">
+    </row>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A42" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A38" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A39" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A40" t="s">
-        <v>119</v>
-      </c>
-      <c r="B40" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A41" t="s">
-        <v>120</v>
-      </c>
-      <c r="B41" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A42" t="s">
-        <v>121</v>
-      </c>
       <c r="B42" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="14.25" customHeight="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="14.25" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1">
+        <v>147</v>
+      </c>
+      <c r="B43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A45" t="s">
-        <v>77</v>
+        <v>148</v>
+      </c>
+      <c r="B44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A45" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1">
+        <v>143</v>
+      </c>
+      <c r="B46" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A50" t="s">
-        <v>104</v>
-      </c>
-      <c r="B50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="52" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="53" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="54" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="55" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="56" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="57" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="58" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="59" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="60" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="61" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="62" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="63" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="64" spans="1:2" ht="14.25" customHeight="1"/>
+        <v>145</v>
+      </c>
+      <c r="B47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
     <row r="65" ht="14.25" customHeight="1"/>
     <row r="66" ht="14.25" customHeight="1"/>
     <row r="67" ht="14.25" customHeight="1"/>
@@ -2270,10 +2231,6 @@
     <row r="975" ht="14.25" customHeight="1"/>
     <row r="976" ht="14.25" customHeight="1"/>
     <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -2288,10 +2245,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z987"/>
+  <dimension ref="A1:Z982"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2485,52 +2442,17 @@
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
@@ -3489,11 +3411,6 @@
     <row r="980" ht="14.25" customHeight="1"/>
     <row r="981" ht="14.25" customHeight="1"/>
     <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3504,8 +3421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3557,39 +3474,39 @@
         <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -3597,7 +3514,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -3605,79 +3522,79 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1"/>

--- a/Data/TsiConfig.xlsx
+++ b/Data/TsiConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603213\Documents\UiPath\TsiPortal\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A751CCB-1116-4E94-AB5C-4675FD1F0A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D30A34-499C-4C54-811D-801AE33631AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="150">
   <si>
     <t>Name</t>
   </si>
@@ -298,12 +298,6 @@
   </si>
   <si>
     <t>OutlookAccountName</t>
-  </si>
-  <si>
-    <t>CcEmailList</t>
-  </si>
-  <si>
-    <t>RecipientsList</t>
   </si>
   <si>
     <t>SentOnBehalfName</t>
@@ -345,9 +339,6 @@
 Bot</t>
   </si>
   <si>
-    <t>criszean.tan@tel.com</t>
-  </si>
-  <si>
     <t>ProcessEndEmailSubject</t>
   </si>
   <si>
@@ -363,12 +354,6 @@
     <t>NoRecordsFoundInFlatFileException</t>
   </si>
   <si>
-    <t>Hi, 
-TSI File for Vanguard process has been successfully downloaded. 
-Thanks, 
-Bot</t>
-  </si>
-  <si>
     <t>Vanguard: TSIBot Process execution ended</t>
   </si>
   <si>
@@ -417,9 +402,6 @@
     <t>TSI_ProcessCCList</t>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
     <t>TSICredentials</t>
   </si>
   <si>
@@ -435,18 +417,6 @@
     <t>TSI_DelayAfter</t>
   </si>
   <si>
-    <t>TSI_WithoutItemDetailsPath</t>
-  </si>
-  <si>
-    <t>WithoutItemDetailsPath</t>
-  </si>
-  <si>
-    <t>WithItemDetailsPath</t>
-  </si>
-  <si>
-    <t>TSI_WithItemDetailsPath</t>
-  </si>
-  <si>
     <t>TSI_NumberOfRetries</t>
   </si>
   <si>
@@ -496,6 +466,23 @@
   </si>
   <si>
     <t>No records found in the with item details flat file</t>
+  </si>
+  <si>
+    <t>Hi, 
+TSI File for Vanguard process has been successfully downloaded. Please find below file path: 
+ </t>
+  </si>
+  <si>
+    <t>TSI_FlatFileWithItemDetailsFolder</t>
+  </si>
+  <si>
+    <t>FlatFileWithItemDetailsFolder</t>
+  </si>
+  <si>
+    <t>TSI_FlatFileWithOutItemDetailsFolder</t>
+  </si>
+  <si>
+    <t>FlatFileWithOutItemDetailsFolder</t>
   </si>
 </sst>
 </file>
@@ -883,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z977"/>
+  <dimension ref="A1:Z975"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -966,29 +953,29 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1022,128 +1009,125 @@
     </row>
     <row r="14" spans="1:26" ht="14.5" customHeight="1">
       <c r="A14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" t="s">
-        <v>127</v>
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.5" customHeight="1">
       <c r="A15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" t="s">
-        <v>127</v>
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.5" customHeight="1">
       <c r="A16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" t="s">
         <v>99</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.5" customHeight="1">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.5" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.5" customHeight="1">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" t="s">
-        <v>66</v>
+        <v>46</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" t="s">
-        <v>113</v>
+        <v>82</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>115</v>
+      <c r="A23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" t="s">
-        <v>115</v>
+      <c r="A24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A27" s="2" t="s">
-        <v>59</v>
+      <c r="A27" t="s">
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A28" s="2" t="s">
-        <v>54</v>
+      <c r="A28" t="s">
+        <v>56</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
@@ -1151,23 +1135,23 @@
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
         <v>84</v>
@@ -1175,23 +1159,23 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
         <v>73</v>
@@ -1199,18 +1183,18 @@
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1">
       <c r="A36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" t="s">
-        <v>73</v>
+        <v>93</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1">
@@ -1218,89 +1202,75 @@
         <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
+      </c>
+      <c r="B38" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A41" t="s">
-        <v>108</v>
+      <c r="A41" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="B41" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A42" t="s">
-        <v>109</v>
+      <c r="A42" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="B42" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="14.25" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B43" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A44" s="2" t="s">
-        <v>148</v>
+      <c r="A44" t="s">
+        <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A45" s="2" t="s">
-        <v>149</v>
+      <c r="A45" t="s">
+        <v>136</v>
       </c>
       <c r="B45" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A46" t="s">
-        <v>143</v>
-      </c>
-      <c r="B46" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A47" t="s">
-        <v>145</v>
-      </c>
-      <c r="B47" t="s">
-        <v>146</v>
-      </c>
-    </row>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
@@ -2229,17 +2199,14 @@
     <row r="973" ht="14.25" customHeight="1"/>
     <row r="974" ht="14.25" customHeight="1"/>
     <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B23" r:id="rId1" xr:uid="{57FEDF6C-3E75-43B0-985B-5C0A40FC3383}"/>
-    <hyperlink ref="B24" r:id="rId2" xr:uid="{1B303B74-A3E9-49DA-AB16-8F24DF6C605B}"/>
-    <hyperlink ref="B14" r:id="rId3" xr:uid="{B5122D00-6737-4E75-ABEC-B0048DA0D91B}"/>
+    <hyperlink ref="B21" r:id="rId1" xr:uid="{57FEDF6C-3E75-43B0-985B-5C0A40FC3383}"/>
+    <hyperlink ref="B22" r:id="rId2" xr:uid="{1B303B74-A3E9-49DA-AB16-8F24DF6C605B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3419,10 +3386,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z1004"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3474,7 +3441,7 @@
         <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
@@ -3482,7 +3449,7 @@
         <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
@@ -3490,7 +3457,7 @@
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
@@ -3498,15 +3465,15 @@
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -3514,7 +3481,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -3522,7 +3489,7 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -3530,7 +3497,7 @@
         <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -3538,63 +3505,63 @@
         <v>61</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>134</v>
+      <c r="A14" t="s">
+        <v>130</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
+      </c>
+      <c r="B16" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
+      </c>
+      <c r="B17" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1"/>
@@ -4582,8 +4549,6 @@
     <row r="1000" ht="14.25" customHeight="1"/>
     <row r="1001" ht="14.25" customHeight="1"/>
     <row r="1002" ht="14.25" customHeight="1"/>
-    <row r="1003" ht="14.25" customHeight="1"/>
-    <row r="1004" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
